--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43301,6 +43301,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43338,6 +43338,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43449,6 +43449,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43556,6 +43556,41 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>22500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43591,6 +43591,41 @@
         <v>22500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43626,6 +43626,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43661,6 +43661,41 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43696,6 +43696,43 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,78 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43805,6 +43805,78 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43877,6 +43877,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43914,6 +43914,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43949,6 +43949,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43986,6 +43986,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44023,6 +44023,76 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44093,6 +44093,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44128,6 +44128,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>30100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90048,6 +90048,43 @@
         <v>30100</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2551" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90085,6 +90085,43 @@
         </is>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2552" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90122,6 +90122,43 @@
         </is>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2553" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2553"/>
+  <dimension ref="A1:I2554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90159,6 +90159,43 @@
         </is>
       </c>
     </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2554" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2554"/>
+  <dimension ref="A1:I2555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90196,6 +90196,41 @@
         </is>
       </c>
     </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2555" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90231,6 +90231,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2556" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2556"/>
+  <dimension ref="A1:I2557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90268,6 +90268,43 @@
         </is>
       </c>
     </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I2557" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2557"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90305,6 +90305,41 @@
         </is>
       </c>
     </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>24300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90340,6 +90340,41 @@
         <v>24300</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>12400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90375,6 +90375,41 @@
         <v>12400</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>18100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2560"/>
+  <dimension ref="A1:I2561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90410,6 +90410,41 @@
         <v>18100</v>
       </c>
     </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2561" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90445,6 +90445,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>21900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90480,6 +90480,41 @@
         <v>21900</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90515,6 +90515,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5371.xlsx
+++ b/data/5371.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90550,6 +90550,41 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>KIMHIN</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
